--- a/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
+++ b/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-20T13:42:04+03:00</t>
+    <t>2021-10-21T16:57:10+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
+++ b/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T16:57:10+03:00</t>
+    <t>2021-10-21T17:36:15+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
+++ b/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T17:36:15+03:00</t>
+    <t>2021-10-22T09:18:10+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
+++ b/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T09:18:10+03:00</t>
+    <t>2021-11-03T16:53:54+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
+++ b/fhir/IG/mosreg/CodeSystem-nsi-cs-1-2-643-5-1-13-13-11-1002.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-03T16:53:54+03:00</t>
+    <t>2022-07-29T19:06:48+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
